--- a/ROWBUILD Project tracker.xlsx
+++ b/ROWBUILD Project tracker.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JAY\OneDrive\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11760" activeTab="3"/>
   </bookViews>
@@ -28,7 +23,7 @@
     <definedName name="FMdetails">Table4[#All]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Tracker'!$4:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -480,7 +475,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;Over/Under flag&quot;;&quot;&quot;;&quot;&quot;"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -1131,35 +1126,7 @@
     <cellStyle name="Text" xfId="5"/>
     <cellStyle name="Title" xfId="9" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="37">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1736,34 +1703,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1771,20 +1710,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1992,6 +1917,20 @@
       <font>
         <b/>
         <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <color theme="2" tint="-0.89996032593768116"/>
       </font>
       <fill>
@@ -2021,8 +1960,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Custom Table Style" defaultPivotStyle="PivotStyleMedium2">
     <tableStyle name="Custom Table Style" pivot="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="44"/>
-      <tableStyleElement type="headerRow" dxfId="43"/>
+      <tableStyleElement type="wholeTable" dxfId="36"/>
+      <tableStyleElement type="headerRow" dxfId="35"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2259,7 +2198,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B4:O13" totalsRowShown="0" tableBorderDxfId="42" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="ProjectTracker" displayName="ProjectTracker" ref="B4:O13" totalsRowShown="0" tableBorderDxfId="32" headerRowCellStyle="Heading 2">
   <autoFilter ref="B4:O13"/>
   <tableColumns count="14">
     <tableColumn id="1" name="Project" dataCellStyle="Text"/>
@@ -2273,7 +2212,7 @@
     </tableColumn>
     <tableColumn id="8" name="Actual _x000a_Start" dataCellStyle="Actual Start"/>
     <tableColumn id="9" name="Actual_x000a_Finish" dataCellStyle="Date"/>
-    <tableColumn id="13" name="Flag icon for Over/Under Actual Work (in hours)" dataDxfId="41" dataCellStyle="Flag">
+    <tableColumn id="13" name="Flag icon for Over/Under Actual Work (in hours)" dataDxfId="31" dataCellStyle="Flag">
       <calculatedColumnFormula>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Actual Work (in hours)" dataCellStyle="Numbers"/>
@@ -2283,7 +2222,7 @@
     <tableColumn id="11" name="Actual Duration (in days)" dataCellStyle="Grey Column">
       <calculatedColumnFormula>IF(COUNTA('Project Tracker'!$I5,'Project Tracker'!$J5)&lt;&gt;2,"",DAYS360('Project Tracker'!$I5,'Project Tracker'!$J5,FALSE))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Notes" dataDxfId="40" dataCellStyle="Text"/>
+    <tableColumn id="12" name="Notes" dataDxfId="30" dataCellStyle="Text"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2311,42 +2250,42 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B1:D47" totalsRowShown="0" headerRowDxfId="39" dataDxfId="37" headerRowBorderDxfId="38" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="B1:D47" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26">
   <autoFilter ref="B1:D47"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Field Manager" dataDxfId="35"/>
-    <tableColumn id="3" name="Phone Number" dataDxfId="34"/>
-    <tableColumn id="4" name="Email Address" dataDxfId="33"/>
+    <tableColumn id="1" name="Field Manager" dataDxfId="25"/>
+    <tableColumn id="3" name="Phone Number" dataDxfId="24"/>
+    <tableColumn id="4" name="Email Address" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjectTracker3" displayName="ProjectTracker3" ref="A4:P21" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20" headerRowCellStyle="Heading 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="ProjectTracker3" displayName="ProjectTracker3" ref="A4:P21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16" headerRowCellStyle="Heading 2">
   <autoFilter ref="A4:P21"/>
   <sortState ref="A5:P21">
     <sortCondition ref="G4:G21"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Patch/Area " dataDxfId="19" dataCellStyle="Text"/>
-    <tableColumn id="2" name="Work ID" dataDxfId="18" dataCellStyle="Text"/>
-    <tableColumn id="15" name="Project Name" dataDxfId="17" dataCellStyle="Text"/>
-    <tableColumn id="3" name="Assigned To" dataDxfId="16" dataCellStyle="Text"/>
-    <tableColumn id="4" name="Payment" dataDxfId="15" dataCellStyle="Date"/>
-    <tableColumn id="18" name="Job Status" dataDxfId="14" dataCellStyle="Date"/>
-    <tableColumn id="5" name="Target Date" dataDxfId="13" dataCellStyle="Date"/>
-    <tableColumn id="6" name="Estimated Work (in hours)" dataDxfId="12" dataCellStyle="Numbers"/>
-    <tableColumn id="7" name="Estimated Duration (in days)" dataDxfId="11" dataCellStyle="Estimated duration"/>
-    <tableColumn id="9" name="Actual_x000a_Finish" dataDxfId="10" dataCellStyle="Date"/>
-    <tableColumn id="10" name="Actual Work (in hours)" dataDxfId="9" dataCellStyle="Numbers"/>
-    <tableColumn id="14" name="Flag icon for Over/Under Actual Duration (in days)" dataDxfId="8" dataCellStyle="Flag"/>
-    <tableColumn id="11" name="Actual Duration (in days)" dataDxfId="7" dataCellStyle="Grey Column"/>
-    <tableColumn id="12" name="Field Manager" dataDxfId="6" dataCellStyle="Estimated duration"/>
-    <tableColumn id="17" name="FM Email ID" dataDxfId="5">
+    <tableColumn id="1" name="Patch/Area " dataDxfId="15" dataCellStyle="Text"/>
+    <tableColumn id="2" name="Work ID" dataDxfId="14" dataCellStyle="Text"/>
+    <tableColumn id="15" name="Project Name" dataDxfId="13" dataCellStyle="Text"/>
+    <tableColumn id="3" name="Assigned To" dataDxfId="12" dataCellStyle="Text"/>
+    <tableColumn id="4" name="Payment" dataDxfId="11" dataCellStyle="Date"/>
+    <tableColumn id="18" name="Job Status" dataDxfId="10" dataCellStyle="Date"/>
+    <tableColumn id="5" name="Target Date" dataDxfId="9" dataCellStyle="Date"/>
+    <tableColumn id="6" name="Estimated Work (in hours)" dataDxfId="8" dataCellStyle="Numbers"/>
+    <tableColumn id="7" name="Estimated Duration (in days)" dataDxfId="7" dataCellStyle="Estimated duration"/>
+    <tableColumn id="9" name="Actual_x000a_Finish" dataDxfId="6" dataCellStyle="Date"/>
+    <tableColumn id="10" name="Actual Work (in hours)" dataDxfId="5" dataCellStyle="Numbers"/>
+    <tableColumn id="14" name="Flag icon for Over/Under Actual Duration (in days)" dataDxfId="4" dataCellStyle="Flag"/>
+    <tableColumn id="11" name="Actual Duration (in days)" dataDxfId="3" dataCellStyle="Grey Column"/>
+    <tableColumn id="12" name="Field Manager" dataDxfId="2" dataCellStyle="Estimated duration"/>
+    <tableColumn id="17" name="FM Email ID" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(A4,FFFF,4,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" name="Comments" dataDxfId="4"/>
+    <tableColumn id="19" name="Comments" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Custom Table Style" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2687,11 +2626,11 @@
       </c>
       <c r="E5" s="18">
         <f ca="1">TODAY()-65</f>
-        <v>43115</v>
+        <v>43122</v>
       </c>
       <c r="F5" s="18">
         <f ca="1">TODAY()-5</f>
-        <v>43175</v>
+        <v>43182</v>
       </c>
       <c r="G5" s="15">
         <v>210</v>
@@ -2702,11 +2641,11 @@
       </c>
       <c r="I5" s="19">
         <f ca="1">TODAY()-65</f>
-        <v>43115</v>
+        <v>43122</v>
       </c>
       <c r="J5" s="18">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43187</v>
       </c>
       <c r="K5" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -2737,11 +2676,11 @@
       </c>
       <c r="E6" s="18">
         <f ca="1">TODAY()-41</f>
-        <v>43139</v>
+        <v>43146</v>
       </c>
       <c r="F6" s="18">
         <f ca="1">TODAY()-10</f>
-        <v>43170</v>
+        <v>43177</v>
       </c>
       <c r="G6" s="15">
         <v>400</v>
@@ -2752,11 +2691,11 @@
       </c>
       <c r="I6" s="19">
         <f ca="1">TODAY()-41</f>
-        <v>43139</v>
+        <v>43146</v>
       </c>
       <c r="J6" s="18">
         <f ca="1">TODAY()-7</f>
-        <v>43173</v>
+        <v>43180</v>
       </c>
       <c r="K6" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -2787,11 +2726,11 @@
       </c>
       <c r="E7" s="18">
         <f ca="1">TODAY()-100</f>
-        <v>43080</v>
+        <v>43087</v>
       </c>
       <c r="F7" s="18">
         <f ca="1">TODAY()-40</f>
-        <v>43140</v>
+        <v>43147</v>
       </c>
       <c r="G7" s="15">
         <v>500</v>
@@ -2802,11 +2741,11 @@
       </c>
       <c r="I7" s="19">
         <f ca="1">TODAY()-100</f>
-        <v>43080</v>
+        <v>43087</v>
       </c>
       <c r="J7" s="18">
         <f ca="1">TODAY()-27</f>
-        <v>43153</v>
+        <v>43160</v>
       </c>
       <c r="K7" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -2817,11 +2756,11 @@
       </c>
       <c r="M7" s="17">
         <f ca="1">IFERROR(IF(ProjectTracker[Actual Duration (in days)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Duration (in days)]]-ProjectTracker[[#This Row],[Estimated Duration (in days)]])/ProjectTracker[[#This Row],[Estimated Duration (in days)]])&gt;FlagPercent,1,0)),"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="20">
         <f ca="1">IF(COUNTA('Project Tracker'!$I7,'Project Tracker'!$J7)&lt;&gt;2,"",DAYS360('Project Tracker'!$I7,'Project Tracker'!$J7,FALSE))</f>
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O7" s="14"/>
     </row>
@@ -2837,26 +2776,26 @@
       </c>
       <c r="E8" s="18">
         <f ca="1">TODAY()-90</f>
-        <v>43090</v>
+        <v>43097</v>
       </c>
       <c r="F8" s="18">
         <f ca="1">TODAY()-80</f>
-        <v>43100</v>
+        <v>43107</v>
       </c>
       <c r="G8" s="15">
         <v>250</v>
       </c>
       <c r="H8" s="28">
         <f ca="1">IF(COUNTA('Project Tracker'!$E8,'Project Tracker'!$F8)&lt;&gt;2,"",DAYS360('Project Tracker'!$E8,'Project Tracker'!$F8,FALSE))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="19">
         <f ca="1">TODAY()-90</f>
-        <v>43090</v>
+        <v>43097</v>
       </c>
       <c r="J8" s="18">
         <f ca="1">TODAY()-71</f>
-        <v>43109</v>
+        <v>43116</v>
       </c>
       <c r="K8" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -2887,26 +2826,26 @@
       </c>
       <c r="E9" s="18">
         <f ca="1">TODAY()-90</f>
-        <v>43090</v>
+        <v>43097</v>
       </c>
       <c r="F9" s="18">
         <f ca="1">TODAY()-50</f>
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="G9" s="15">
         <v>300</v>
       </c>
       <c r="H9" s="28">
         <f ca="1">IF(COUNTA('Project Tracker'!$E9,'Project Tracker'!$F9)&lt;&gt;2,"",DAYS360('Project Tracker'!$E9,'Project Tracker'!$F9,FALSE))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I9" s="19">
         <f ca="1">TODAY()-90</f>
-        <v>43090</v>
+        <v>43097</v>
       </c>
       <c r="J9" s="18">
         <f ca="1">TODAY()-44</f>
-        <v>43136</v>
+        <v>43143</v>
       </c>
       <c r="K9" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -2937,26 +2876,26 @@
       </c>
       <c r="E10" s="18">
         <f ca="1">TODAY()-60</f>
-        <v>43120</v>
+        <v>43127</v>
       </c>
       <c r="F10" s="18">
         <f ca="1">TODAY()-50</f>
-        <v>43130</v>
+        <v>43137</v>
       </c>
       <c r="G10" s="15">
         <v>500</v>
       </c>
       <c r="H10" s="28">
         <f ca="1">IF(COUNTA('Project Tracker'!$E10,'Project Tracker'!$F10)&lt;&gt;2,"",DAYS360('Project Tracker'!$E10,'Project Tracker'!$F10,FALSE))</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I10" s="19">
         <f ca="1">TODAY()-60</f>
-        <v>43120</v>
+        <v>43127</v>
       </c>
       <c r="J10" s="18">
         <f ca="1">TODAY()-45</f>
-        <v>43135</v>
+        <v>43142</v>
       </c>
       <c r="K10" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -2987,11 +2926,11 @@
       </c>
       <c r="E11" s="18">
         <f ca="1">TODAY()-44</f>
-        <v>43136</v>
+        <v>43143</v>
       </c>
       <c r="F11" s="18">
         <f ca="1">TODAY()-20</f>
-        <v>43160</v>
+        <v>43167</v>
       </c>
       <c r="G11" s="15">
         <v>750</v>
@@ -3002,11 +2941,11 @@
       </c>
       <c r="I11" s="19">
         <f ca="1">TODAY()-44</f>
-        <v>43136</v>
+        <v>43143</v>
       </c>
       <c r="J11" s="18">
         <f ca="1">TODAY()-15</f>
-        <v>43165</v>
+        <v>43172</v>
       </c>
       <c r="K11" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -3037,11 +2976,11 @@
       </c>
       <c r="E12" s="18">
         <f ca="1">TODAY()-39</f>
-        <v>43141</v>
+        <v>43148</v>
       </c>
       <c r="F12" s="18">
         <f ca="1">TODAY()</f>
-        <v>43180</v>
+        <v>43187</v>
       </c>
       <c r="G12" s="15">
         <v>450</v>
@@ -3052,11 +2991,11 @@
       </c>
       <c r="I12" s="19">
         <f ca="1">TODAY()-45</f>
-        <v>43135</v>
+        <v>43142</v>
       </c>
       <c r="J12" s="18">
         <f ca="1">TODAY()-5</f>
-        <v>43175</v>
+        <v>43182</v>
       </c>
       <c r="K12" s="17">
         <f>IFERROR(IF(ProjectTracker[Actual Work (in hours)]=0,"",IF(ABS((ProjectTracker[[#This Row],[Actual Work (in hours)]]-ProjectTracker[[#This Row],[Estimated Work (in hours)]])/ProjectTracker[[#This Row],[Estimated Work (in hours)]])&gt;FlagPercent,1,0)),"")</f>
@@ -3123,12 +3062,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L5:L13">
-    <cfRule type="expression" dxfId="32" priority="6">
+    <cfRule type="expression" dxfId="34" priority="6">
       <formula>(ABS((L5-G5))/G5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N13">
-    <cfRule type="expression" dxfId="31" priority="8">
+    <cfRule type="expression" dxfId="33" priority="8">
       <formula>(ABS((N5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4033,7 +3972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -4053,7 +3992,7 @@
     <col min="12" max="12" width="4" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" customWidth="1"/>
     <col min="14" max="14" width="23.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="36.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
@@ -4258,7 +4197,7 @@
       <c r="M8" s="77"/>
       <c r="N8" s="78"/>
       <c r="O8" s="79" t="str">
-        <f>VLOOKUP(A7,FFFF,4,0)</f>
+        <f t="shared" ref="O8:O21" si="0">VLOOKUP(A7,FFFF,4,0)</f>
         <v>Gregory.Tuanau@visionstream.co.nz</v>
       </c>
       <c r="P8" s="80"/>
@@ -4292,11 +4231,11 @@
       <c r="L9" s="54"/>
       <c r="M9" s="51"/>
       <c r="N9" s="67" t="str">
-        <f>VLOOKUP(A9,FFFF,2,0)</f>
+        <f t="shared" ref="N9:N21" si="1">VLOOKUP(A9,FFFF,2,0)</f>
         <v>Greg Tuanau</v>
       </c>
       <c r="O9" s="43" t="e">
-        <f>VLOOKUP(A8,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>#N/A</v>
       </c>
       <c r="P9" s="55"/>
@@ -4330,11 +4269,11 @@
       <c r="L10" s="54"/>
       <c r="M10" s="51"/>
       <c r="N10" s="67" t="str">
-        <f>VLOOKUP(A10,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Davlyn Brider</v>
       </c>
       <c r="O10" s="43" t="str">
-        <f>VLOOKUP(A9,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Gregory.Tuanau@visionstream.co.nz</v>
       </c>
       <c r="P10" s="55"/>
@@ -4368,11 +4307,11 @@
       <c r="L11" s="54"/>
       <c r="M11" s="51"/>
       <c r="N11" s="67" t="str">
-        <f>VLOOKUP(A11,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Andrew McKinnon</v>
       </c>
       <c r="O11" s="43" t="str">
-        <f>VLOOKUP(A10,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Davlyn.Brider@visionstream.co.nz</v>
       </c>
       <c r="P11" s="55"/>
@@ -4404,11 +4343,11 @@
       <c r="L12" s="50"/>
       <c r="M12" s="51"/>
       <c r="N12" s="67" t="str">
-        <f>VLOOKUP(A12,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Andrew McKinnon</v>
       </c>
       <c r="O12" s="43" t="str">
-        <f>VLOOKUP(A11,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Andrew.Mckinnon@visionstream.co.nz</v>
       </c>
       <c r="P12" s="29"/>
@@ -4440,11 +4379,11 @@
       <c r="L13" s="50"/>
       <c r="M13" s="51"/>
       <c r="N13" s="67" t="str">
-        <f>VLOOKUP(A13,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Andrew McKinnon</v>
       </c>
       <c r="O13" s="43" t="str">
-        <f>VLOOKUP(A12,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Andrew.Mckinnon@visionstream.co.nz</v>
       </c>
       <c r="P13" s="29" t="s">
@@ -4480,11 +4419,11 @@
       <c r="L14" s="54"/>
       <c r="M14" s="51"/>
       <c r="N14" s="67" t="str">
-        <f>VLOOKUP(A14,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Andrew McKinnon</v>
       </c>
       <c r="O14" s="43" t="str">
-        <f>VLOOKUP(A13,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Andrew.Mckinnon@visionstream.co.nz</v>
       </c>
       <c r="P14" s="55"/>
@@ -4516,11 +4455,11 @@
       <c r="L15" s="50"/>
       <c r="M15" s="51"/>
       <c r="N15" s="67" t="str">
-        <f>VLOOKUP(A15,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Greg Tuanau</v>
       </c>
       <c r="O15" s="43" t="str">
-        <f>VLOOKUP(A14,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Andrew.Mckinnon@visionstream.co.nz</v>
       </c>
       <c r="P15" s="29"/>
@@ -4552,11 +4491,11 @@
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
       <c r="N16" s="67" t="str">
-        <f>VLOOKUP(A16,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Regan Foai</v>
       </c>
       <c r="O16" s="43" t="str">
-        <f>VLOOKUP(A15,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Gregory.Tuanau@visionstream.co.nz</v>
       </c>
       <c r="P16" s="29"/>
@@ -4590,11 +4529,11 @@
       <c r="L17" s="54"/>
       <c r="M17" s="51"/>
       <c r="N17" s="67" t="str">
-        <f>VLOOKUP(A17,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Neil Panther</v>
       </c>
       <c r="O17" s="43" t="str">
-        <f>VLOOKUP(A16,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Regan.Foai@visionstream.co.nz</v>
       </c>
       <c r="P17" s="55"/>
@@ -4628,11 +4567,11 @@
       <c r="L18" s="54"/>
       <c r="M18" s="51"/>
       <c r="N18" s="67" t="str">
-        <f>VLOOKUP(A18,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Neil Panther</v>
       </c>
       <c r="O18" s="43" t="str">
-        <f>VLOOKUP(A17,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Neil.Panther@visionstream.co.nz</v>
       </c>
       <c r="P18" s="55"/>
@@ -4664,11 +4603,11 @@
       <c r="L19" s="90"/>
       <c r="M19" s="91"/>
       <c r="N19" s="92" t="str">
-        <f>VLOOKUP(A19,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Regan Foai</v>
       </c>
       <c r="O19" s="93" t="str">
-        <f>VLOOKUP(A18,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Neil.Panther@visionstream.co.nz</v>
       </c>
       <c r="P19" s="95" t="s">
@@ -4704,11 +4643,11 @@
       <c r="L20" s="90"/>
       <c r="M20" s="91"/>
       <c r="N20" s="92" t="str">
-        <f>VLOOKUP(A20,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Neil Panther</v>
       </c>
       <c r="O20" s="93" t="str">
-        <f>VLOOKUP(A19,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Regan.Foai@visionstream.co.nz</v>
       </c>
       <c r="P20" s="94"/>
@@ -4742,31 +4681,31 @@
       <c r="L21" s="90"/>
       <c r="M21" s="91"/>
       <c r="N21" s="92" t="str">
-        <f>VLOOKUP(A21,FFFF,2,0)</f>
+        <f t="shared" si="1"/>
         <v>Neil Panther</v>
       </c>
       <c r="O21" s="93" t="str">
-        <f>VLOOKUP(A20,FFFF,4,0)</f>
+        <f t="shared" si="0"/>
         <v>Neil.Panther@visionstream.co.nz</v>
       </c>
       <c r="P21" s="94"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K5:K21">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="22" priority="3">
       <formula>(ABS((K5-H5))/H5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M5:M21">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>(ABS((M5-I5))/I5)&gt;FlagPercent</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B19 B21:B1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="duplicateValues" dxfId="23" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="15">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the actual project duration in days. Values that meet the Over/Under criteria are highlighted bold, red and generate a flag icon in column M at left" sqref="M4"/>
